--- a/Pseudo Code/register.xlsx
+++ b/Pseudo Code/register.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Pseudo Code</t>
   </si>
@@ -74,15 +74,9 @@
     <t>email String</t>
   </si>
   <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
     <t>name String</t>
   </si>
   <si>
-    <t>save name, dateOfBirth, email, userName, password to datebase</t>
-  </si>
-  <si>
     <t>loop though users table</t>
   </si>
   <si>
@@ -99,6 +93,9 @@
   </si>
   <si>
     <t>end loop</t>
+  </si>
+  <si>
+    <t>save name, email, userName, password to datebase</t>
   </si>
 </sst>
 </file>
@@ -454,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B34" sqref="B33:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +488,7 @@
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -508,14 +505,12 @@
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -573,7 +568,7 @@
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -591,7 +586,7 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -603,13 +598,13 @@
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -628,13 +623,13 @@
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">

--- a/Pseudo Code/register.xlsx
+++ b/Pseudo Code/register.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>Pseudo Code</t>
   </si>
@@ -53,18 +53,9 @@
     <t>Begin</t>
   </si>
   <si>
-    <t>begin if</t>
-  </si>
-  <si>
     <t>return true</t>
   </si>
   <si>
-    <t>end if</t>
-  </si>
-  <si>
-    <t>return false</t>
-  </si>
-  <si>
     <t>End</t>
   </si>
   <si>
@@ -80,22 +71,34 @@
     <t>loop though users table</t>
   </si>
   <si>
-    <t>userNameIn = userName</t>
-  </si>
-  <si>
     <t>userNameIn String</t>
   </si>
   <si>
     <t>userNameCheck boolean</t>
   </si>
   <si>
-    <t>then</t>
-  </si>
-  <si>
     <t>end loop</t>
   </si>
   <si>
     <t>save name, email, userName, password to datebase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   begin if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      return false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        userNameIn = userName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return false</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -488,7 +491,7 @@
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -500,7 +503,7 @@
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -510,7 +513,7 @@
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -568,7 +571,7 @@
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -586,62 +589,62 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
